--- a/data/trans_orig/IP07C14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C14-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B12544-87B2-429A-B7F6-E9B1CF1FA62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF3AB7E-BC42-4575-922C-95042F4F62AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D42C984-0C85-4976-B9FF-0CFFF5977345}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9EEEE4B-4FAE-41DC-B733-32615247A8C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="513">
   <si>
     <t>Menores según frecuencia de preocuparse con su aspecto en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
@@ -76,25 +76,25 @@
     <t>8,14%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
   </si>
   <si>
     <t>29,2%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>12,88%</t>
+    <t>13,06%</t>
   </si>
   <si>
     <t>26,72%</t>
@@ -109,1456 +109,1474 @@
     <t>4,45%</t>
   </si>
   <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2016 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2015 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>18,93%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EEBADA-D4F2-4CBD-B5E2-16824A9B373B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F45BE24-616E-4D87-9554-8559F82E8EB4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2489,7 +2507,7 @@
         <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2522,13 @@
         <v>60046</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>98</v>
@@ -2519,13 +2537,13 @@
         <v>65944</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>188</v>
@@ -2534,13 +2552,13 @@
         <v>125990</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2573,13 @@
         <v>37289</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -2570,13 +2588,13 @@
         <v>18517</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -2585,13 +2603,13 @@
         <v>55806</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2624,13 @@
         <v>53117</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -2621,13 +2639,13 @@
         <v>33419</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -2636,13 +2654,13 @@
         <v>86535</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,7 +2716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2710,13 +2728,13 @@
         <v>8506</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -2725,13 +2743,13 @@
         <v>15510</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2740,13 +2758,13 @@
         <v>24017</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2779,13 @@
         <v>7445</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2779,10 +2797,10 @@
         <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -2791,13 +2809,13 @@
         <v>16620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2830,13 @@
         <v>15468</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2827,13 +2845,13 @@
         <v>13180</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -2842,13 +2860,13 @@
         <v>28648</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2881,13 @@
         <v>5336</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -2878,13 +2896,13 @@
         <v>5416</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2893,13 +2911,13 @@
         <v>10753</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2932,13 @@
         <v>12285</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -2929,13 +2947,13 @@
         <v>10965</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -2944,13 +2962,13 @@
         <v>23250</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3036,13 @@
         <v>42009</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -3033,13 +3051,13 @@
         <v>61144</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -3048,7 +3066,7 @@
         <v>103153</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>156</v>
@@ -3084,13 +3102,13 @@
         <v>55373</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -3099,13 +3117,13 @@
         <v>102434</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3138,13 @@
         <v>92384</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>139</v>
@@ -3135,13 +3153,13 @@
         <v>93912</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>277</v>
@@ -3150,13 +3168,13 @@
         <v>186297</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3189,13 @@
         <v>49053</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3186,13 +3204,13 @@
         <v>29294</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -3201,13 +3219,13 @@
         <v>78347</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3240,13 @@
         <v>77719</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -3237,13 +3255,13 @@
         <v>50923</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>194</v>
@@ -3252,13 +3270,13 @@
         <v>128641</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,7 +3332,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3333,7 +3351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2E29C7-3D4B-4C97-B3F8-C5CD825A481A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E0DD3-8BBE-4DA1-8984-CD327625FCFF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3350,7 +3368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3457,13 +3475,13 @@
         <v>6481</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3472,13 +3490,13 @@
         <v>13125</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3487,13 +3505,13 @@
         <v>19606</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,10 +3526,10 @@
         <v>3455</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>205</v>
@@ -3628,10 +3646,10 @@
         <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3640,13 +3658,13 @@
         <v>21947</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3679,13 @@
         <v>11499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -3676,13 +3694,13 @@
         <v>8112</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -3691,13 +3709,13 @@
         <v>19611</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3783,13 @@
         <v>39155</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -3780,13 +3798,13 @@
         <v>51423</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -3795,13 +3813,13 @@
         <v>90578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3834,13 @@
         <v>33820</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -3831,13 +3849,13 @@
         <v>41052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>110</v>
@@ -3846,13 +3864,13 @@
         <v>74872</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3885,13 @@
         <v>67246</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -3882,13 +3900,13 @@
         <v>51839</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>171</v>
@@ -3897,13 +3915,13 @@
         <v>119085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3936,13 @@
         <v>35516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -3933,13 +3951,13 @@
         <v>26388</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3948,13 +3966,13 @@
         <v>61904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3987,13 @@
         <v>49028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -3984,13 +4002,13 @@
         <v>28524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -3999,13 +4017,13 @@
         <v>77552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,7 +4079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4073,13 +4091,13 @@
         <v>12041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4088,13 +4106,13 @@
         <v>14014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -4103,13 +4121,13 @@
         <v>26055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4142,13 @@
         <v>5698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4139,13 +4157,13 @@
         <v>12041</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -4154,13 +4172,13 @@
         <v>17739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4193,13 @@
         <v>14699</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -4190,13 +4208,13 @@
         <v>19013</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -4205,13 +4223,13 @@
         <v>33711</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4244,13 @@
         <v>10951</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4241,13 +4259,13 @@
         <v>3386</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -4256,13 +4274,13 @@
         <v>14337</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4295,13 @@
         <v>12072</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -4292,13 +4310,13 @@
         <v>12347</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -4307,13 +4325,13 @@
         <v>24419</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4399,13 @@
         <v>57677</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -4396,13 +4414,13 @@
         <v>78562</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4411,13 +4429,13 @@
         <v>136239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,25 +4453,25 @@
         <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
       </c>
       <c r="I23" s="7">
-        <v>60743</v>
+        <v>60742</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>151</v>
@@ -4462,13 +4480,13 @@
         <v>103716</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4501,13 @@
         <v>94903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>185</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>116</v>
@@ -4498,13 +4516,13 @@
         <v>82413</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>254</v>
@@ -4513,13 +4531,13 @@
         <v>177316</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4552,13 @@
         <v>57235</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -4549,13 +4567,13 @@
         <v>40952</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -4564,13 +4582,13 @@
         <v>98187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4603,13 @@
         <v>72599</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>73</v>
@@ -4600,13 +4618,13 @@
         <v>48983</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>176</v>
@@ -4615,13 +4633,13 @@
         <v>121582</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,7 +4666,7 @@
         <v>443</v>
       </c>
       <c r="I27" s="7">
-        <v>311653</v>
+        <v>311652</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4677,7 +4695,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4696,7 +4714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DFDB39-E1F6-450C-A56F-BD3D1C8DE3DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7F18BB-6356-4A5C-8F6A-8ED5BFB425C1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4713,7 +4731,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4820,13 +4838,13 @@
         <v>3337</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4835,10 +4853,10 @@
         <v>8322</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>364</v>
@@ -4850,13 +4868,13 @@
         <v>11659</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4889,13 @@
         <v>9499</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4886,13 +4904,13 @@
         <v>4082</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -4901,13 +4919,13 @@
         <v>13582</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>376</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4940,13 @@
         <v>9502</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4937,13 +4955,13 @@
         <v>4969</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>378</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -4952,13 +4970,13 @@
         <v>14471</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4991,13 @@
         <v>8800</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4988,13 +5006,13 @@
         <v>4746</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5003,13 +5021,13 @@
         <v>13546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5042,13 @@
         <v>5499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -5039,13 +5057,13 @@
         <v>8487</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -5054,13 +5072,13 @@
         <v>13986</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>395</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>399</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5146,13 @@
         <v>40191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -5143,13 +5161,13 @@
         <v>50230</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>125</v>
@@ -5158,13 +5176,13 @@
         <v>90420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,10 +5215,10 @@
         <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>409</v>
       </c>
       <c r="M11" s="7">
         <v>118</v>
@@ -5209,13 +5227,13 @@
         <v>84205</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>411</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,7 +5281,7 @@
         <v>418</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>382</v>
+        <v>243</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>419</v>
@@ -5287,7 +5305,7 @@
         <v>421</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>422</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -5296,13 +5314,13 @@
         <v>34438</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -5311,13 +5329,13 @@
         <v>86224</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5350,13 @@
         <v>53093</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -5347,10 +5365,10 @@
         <v>47330</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>432</v>
@@ -5365,10 +5383,10 @@
         <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,7 +5442,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5436,13 +5454,13 @@
         <v>7529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -5451,13 +5469,13 @@
         <v>15895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -5466,13 +5484,13 @@
         <v>23425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>442</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,7 +5526,7 @@
         <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>448</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -5517,13 +5535,13 @@
         <v>29172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5556,13 @@
         <v>13255</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -5553,13 +5571,13 @@
         <v>20669</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>453</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -5568,13 +5586,13 @@
         <v>33925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5607,13 @@
         <v>12478</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>459</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>460</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5604,13 +5622,13 @@
         <v>12169</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>463</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -5619,13 +5637,13 @@
         <v>24646</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5658,13 @@
         <v>23874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -5655,13 +5673,13 @@
         <v>11550</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -5670,13 +5688,13 @@
         <v>35424</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5762,13 @@
         <v>51057</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>165</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -5759,13 +5777,13 @@
         <v>74447</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>477</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -5774,13 +5792,13 @@
         <v>125504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>480</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5813,13 @@
         <v>67222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5810,13 +5828,13 @@
         <v>59737</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>177</v>
@@ -5825,13 +5843,13 @@
         <v>126959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5864,13 @@
         <v>75394</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>490</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="7">
         <v>131</v>
@@ -5861,13 +5879,13 @@
         <v>91375</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M24" s="7">
         <v>235</v>
@@ -5876,13 +5894,13 @@
         <v>166768</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>321</v>
+        <v>495</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5915,13 @@
         <v>73064</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -5912,13 +5930,13 @@
         <v>51352</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>497</v>
+        <v>423</v>
       </c>
       <c r="M25" s="7">
         <v>173</v>
@@ -5927,13 +5945,13 @@
         <v>124416</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>498</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>245</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5966,13 @@
         <v>82467</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
@@ -5963,13 +5981,13 @@
         <v>67367</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>507</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="M26" s="7">
         <v>213</v>
@@ -5978,13 +5996,13 @@
         <v>149834</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,7 +6058,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C14-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF3AB7E-BC42-4575-922C-95042F4F62AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06CA6C50-F966-480E-878B-685DF48D37EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9EEEE4B-4FAE-41DC-B733-32615247A8C5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{07EDBD1E-2760-4891-BFD4-D8AAB755D344}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
   <si>
     <t>Menores según frecuencia de preocuparse con su aspecto en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1510 +73,1507 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2016 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2016 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>23,62%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>23,94%</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +1985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F45BE24-616E-4D87-9554-8559F82E8EB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974CA877-F4F2-476B-B786-E2EC7C0C4EF0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2106,10 +2103,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>3520</v>
+        <v>13436</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2121,10 +2118,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>13436</v>
+        <v>3520</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2157,10 +2154,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>4088</v>
+        <v>5890</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2172,10 +2169,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>5890</v>
+        <v>4088</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2208,10 +2205,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7">
-        <v>16871</v>
+        <v>14789</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2223,10 +2220,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>14789</v>
+        <v>16871</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2259,10 +2256,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>6428</v>
+        <v>5361</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2274,10 +2271,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>5361</v>
+        <v>6428</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2310,10 +2307,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>12317</v>
+        <v>6539</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -2325,10 +2322,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>6539</v>
+        <v>12317</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -2361,25 +2358,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -2414,10 +2411,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>29983</v>
+        <v>32198</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2429,10 +2426,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>32198</v>
+        <v>29983</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -2441,7 +2438,7 @@
         <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -2450,13 +2447,13 @@
         <v>62180</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,34 +2462,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>60</v>
+      </c>
+      <c r="D11" s="7">
+        <v>40308</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="7">
         <v>53</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>35527</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="7">
-        <v>60</v>
-      </c>
-      <c r="I11" s="7">
-        <v>40308</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -2501,13 +2498,13 @@
         <v>75835</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,10 +2513,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D12" s="7">
-        <v>60046</v>
+        <v>65944</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2531,10 +2528,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I12" s="7">
-        <v>65944</v>
+        <v>60046</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2567,10 +2564,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>37289</v>
+        <v>18517</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>88</v>
@@ -2582,10 +2579,10 @@
         <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>18517</v>
+        <v>37289</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>91</v>
@@ -2618,10 +2615,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>53117</v>
+        <v>33419</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -2633,10 +2630,10 @@
         <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I14" s="7">
-        <v>33419</v>
+        <v>53117</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
@@ -2669,25 +2666,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>326</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>215962</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2722,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>8506</v>
+        <v>15510</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -2737,19 +2734,19 @@
         <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>15510</v>
+        <v>8506</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2758,13 +2755,13 @@
         <v>24017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2770,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>7445</v>
+        <v>9175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>116</v>
@@ -2788,19 +2785,19 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>9175</v>
+        <v>7445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -2809,13 +2806,13 @@
         <v>16620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,34 +2821,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7">
+        <v>13180</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="7">
         <v>23</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>15468</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="7">
-        <v>19</v>
-      </c>
-      <c r="I18" s="7">
-        <v>13180</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -2860,13 +2857,13 @@
         <v>28648</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,31 +2875,31 @@
         <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>5336</v>
+        <v>5416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>5416</v>
+        <v>5336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2911,13 +2908,13 @@
         <v>10753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,34 +2923,34 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10965</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="7">
         <v>19</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>12285</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="7">
-        <v>15</v>
-      </c>
-      <c r="I20" s="7">
-        <v>10965</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -2962,13 +2959,13 @@
         <v>23250</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,25 +2974,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -3030,34 +3027,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>90</v>
+      </c>
+      <c r="D22" s="7">
+        <v>61144</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="7">
         <v>62</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>42009</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="7">
-        <v>90</v>
-      </c>
-      <c r="I22" s="7">
-        <v>61144</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -3066,13 +3063,13 @@
         <v>103153</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,34 +3078,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D23" s="7">
-        <v>47060</v>
+        <v>55373</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>160</v>
       </c>
       <c r="H23" s="7">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I23" s="7">
-        <v>55373</v>
+        <v>47060</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -3117,13 +3114,13 @@
         <v>102434</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,10 +3129,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D24" s="7">
-        <v>92384</v>
+        <v>93912</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>166</v>
@@ -3147,10 +3144,10 @@
         <v>168</v>
       </c>
       <c r="H24" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I24" s="7">
-        <v>93912</v>
+        <v>92384</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>169</v>
@@ -3183,10 +3180,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7">
-        <v>49053</v>
+        <v>29294</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>175</v>
@@ -3198,19 +3195,19 @@
         <v>177</v>
       </c>
       <c r="H25" s="7">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I25" s="7">
-        <v>29294</v>
+        <v>49053</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -3219,13 +3216,13 @@
         <v>78347</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,34 +3231,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>75</v>
+      </c>
+      <c r="D26" s="7">
+        <v>50923</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="7">
         <v>119</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>77719</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H26" s="7">
-        <v>75</v>
-      </c>
-      <c r="I26" s="7">
-        <v>50923</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>194</v>
@@ -3270,13 +3267,13 @@
         <v>128641</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,25 +3282,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>432</v>
+      </c>
+      <c r="D27" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>464</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>308226</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>432</v>
-      </c>
-      <c r="I27" s="7">
-        <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3332,7 +3329,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +3348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E0DD3-8BBE-4DA1-8984-CD327625FCFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE7929A-AD5D-401A-85BC-138F2B0920BB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3368,7 +3365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3469,34 +3466,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13125</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>6481</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="7">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13125</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3505,7 +3502,7 @@
         <v>19606</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>201</v>
@@ -3520,10 +3517,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>3455</v>
+        <v>7649</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>203</v>
@@ -3535,10 +3532,10 @@
         <v>205</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>7649</v>
+        <v>3455</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>206</v>
@@ -3571,10 +3568,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>12958</v>
+        <v>11561</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>212</v>
@@ -3586,10 +3583,10 @@
         <v>214</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>11561</v>
+        <v>12958</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>215</v>
@@ -3622,10 +3619,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>10768</v>
+        <v>11179</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>221</v>
@@ -3637,10 +3634,10 @@
         <v>223</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>11179</v>
+        <v>10768</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>224</v>
@@ -3673,10 +3670,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>11499</v>
+        <v>8112</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>230</v>
@@ -3688,10 +3685,10 @@
         <v>232</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>8112</v>
+        <v>11499</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>233</v>
@@ -3709,13 +3706,13 @@
         <v>19611</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,25 +3721,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -3777,28 +3774,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
+        <v>51423</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="7">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7">
         <v>39155</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H10" s="7">
-        <v>72</v>
-      </c>
-      <c r="I10" s="7">
-        <v>51423</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>241</v>
@@ -3828,10 +3825,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7">
-        <v>33820</v>
+        <v>41052</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>246</v>
@@ -3840,22 +3837,22 @@
         <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>41052</v>
+        <v>33820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>110</v>
@@ -3864,13 +3861,13 @@
         <v>74872</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,10 +3876,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>67246</v>
+        <v>51839</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>254</v>
@@ -3891,22 +3888,22 @@
         <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="7">
+        <v>98</v>
+      </c>
+      <c r="I12" s="7">
+        <v>67246</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H12" s="7">
-        <v>73</v>
-      </c>
-      <c r="I12" s="7">
-        <v>51839</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>171</v>
@@ -3915,13 +3912,13 @@
         <v>119085</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,34 +3927,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7">
+        <v>26388</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="7">
         <v>50</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>35516</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H13" s="7">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26388</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3981,10 +3978,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>49028</v>
+        <v>28524</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>271</v>
@@ -3996,19 +3993,19 @@
         <v>273</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I14" s="7">
-        <v>28524</v>
+        <v>49028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -4017,13 +4014,13 @@
         <v>77552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,25 +4029,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199226</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>224765</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199226</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -4085,34 +4082,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14014</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H16" s="7">
         <v>18</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>12041</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" s="7">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7">
-        <v>14014</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -4121,10 +4118,10 @@
         <v>26055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>286</v>
@@ -4136,10 +4133,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>5698</v>
+        <v>12041</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>287</v>
@@ -4148,22 +4145,22 @@
         <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="7">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5698</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H17" s="7">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7">
-        <v>12041</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -4172,13 +4169,13 @@
         <v>17739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,34 +4184,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19013</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="7">
         <v>21</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>14699</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H18" s="7">
-        <v>27</v>
-      </c>
-      <c r="I18" s="7">
-        <v>19013</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -4223,13 +4220,13 @@
         <v>33711</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,28 +4235,28 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3386</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H19" s="7">
         <v>15</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>10951</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3386</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>307</v>
@@ -4277,10 +4274,10 @@
         <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,31 +4289,31 @@
         <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>12072</v>
+        <v>12347</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
       </c>
       <c r="I20" s="7">
-        <v>12347</v>
+        <v>12072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -4325,13 +4322,13 @@
         <v>24419</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,25 +4337,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60801</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>81</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>55461</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>85</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60801</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4393,34 +4390,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>109</v>
+      </c>
+      <c r="D22" s="7">
+        <v>78562</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" s="7">
         <v>87</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>57677</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H22" s="7">
-        <v>109</v>
-      </c>
-      <c r="I22" s="7">
-        <v>78562</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>321</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4429,7 +4426,7 @@
         <v>136239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>324</v>
@@ -4444,28 +4441,28 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>86</v>
+      </c>
+      <c r="D23" s="7">
+        <v>60743</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H23" s="7">
         <v>65</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>42973</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H23" s="7">
-        <v>86</v>
-      </c>
-      <c r="I23" s="7">
-        <v>60742</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>329</v>
@@ -4495,25 +4492,25 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>116</v>
+      </c>
+      <c r="D24" s="7">
+        <v>82413</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="7">
         <v>138</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>94903</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H24" s="7">
-        <v>116</v>
-      </c>
-      <c r="I24" s="7">
-        <v>82413</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>336</v>
@@ -4546,10 +4543,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D25" s="7">
-        <v>57235</v>
+        <v>40952</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>342</v>
@@ -4558,22 +4555,22 @@
         <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="7">
+        <v>80</v>
+      </c>
+      <c r="I25" s="7">
+        <v>57235</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H25" s="7">
-        <v>59</v>
-      </c>
-      <c r="I25" s="7">
-        <v>40952</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -4582,13 +4579,13 @@
         <v>98187</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,34 +4594,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>73</v>
+      </c>
+      <c r="D26" s="7">
+        <v>48983</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H26" s="7">
         <v>103</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>72599</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H26" s="7">
-        <v>73</v>
-      </c>
-      <c r="I26" s="7">
-        <v>48983</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>176</v>
@@ -4633,13 +4630,13 @@
         <v>121582</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,25 +4645,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>443</v>
+      </c>
+      <c r="D27" s="7">
+        <v>311653</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>473</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>325387</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>443</v>
-      </c>
-      <c r="I27" s="7">
-        <v>311652</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4695,7 +4692,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +4711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7F18BB-6356-4A5C-8F6A-8ED5BFB425C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120605BC-3BA6-458B-B0A5-0A62D1FB5584}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4731,7 +4728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4832,34 +4829,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8322</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>3337</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="H4" s="7">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8322</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4868,10 +4865,10 @@
         <v>11659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>29</v>
+        <v>363</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>365</v>
@@ -4883,34 +4880,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4082</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H5" s="7">
         <v>13</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>9499</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4082</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -4919,13 +4916,13 @@
         <v>13582</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,34 +4931,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4969</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H6" s="7">
         <v>13</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>9502</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4969</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -4970,13 +4967,13 @@
         <v>14471</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,34 +4982,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4746</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H7" s="7">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>8800</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4746</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5021,10 +5018,10 @@
         <v>13546</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>388</v>
@@ -5036,10 +5033,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>5499</v>
+        <v>8487</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>389</v>
@@ -5051,10 +5048,10 @@
         <v>391</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>8487</v>
+        <v>5499</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>392</v>
@@ -5078,7 +5075,7 @@
         <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>305</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,25 +5084,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5140,34 +5137,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>40191</v>
+        <v>50230</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>397</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>398</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>50230</v>
+        <v>40191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>125</v>
@@ -5176,7 +5173,7 @@
         <v>90420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>402</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>403</v>
@@ -5191,10 +5188,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>39357</v>
+        <v>44849</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>405</v>
@@ -5206,16 +5203,16 @@
         <v>407</v>
       </c>
       <c r="H11" s="7">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>44849</v>
+        <v>39357</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>387</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>409</v>
@@ -5233,7 +5230,7 @@
         <v>411</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,34 +5239,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>94</v>
+      </c>
+      <c r="D12" s="7">
+        <v>65736</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H12" s="7">
         <v>73</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>52636</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H12" s="7">
-        <v>94</v>
-      </c>
-      <c r="I12" s="7">
-        <v>65736</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>167</v>
@@ -5278,13 +5275,13 @@
         <v>118372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>243</v>
+        <v>420</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>419</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,34 +5290,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>50</v>
+      </c>
+      <c r="D13" s="7">
+        <v>34438</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H13" s="7">
         <v>70</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>51787</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H13" s="7">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7">
-        <v>34438</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -5329,13 +5326,13 @@
         <v>86224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,34 +5341,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>68</v>
+      </c>
+      <c r="D14" s="7">
+        <v>47330</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" s="7">
         <v>73</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>53093</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H14" s="7">
-        <v>68</v>
-      </c>
-      <c r="I14" s="7">
-        <v>47330</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -5380,13 +5377,13 @@
         <v>100423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,25 +5392,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>347</v>
+      </c>
+      <c r="D15" s="7">
+        <v>242582</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>324</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237063</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7">
-        <v>347</v>
-      </c>
-      <c r="I15" s="7">
-        <v>242582</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5448,34 +5445,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15895</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>7529</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H16" s="7">
-        <v>21</v>
-      </c>
-      <c r="I16" s="7">
-        <v>15895</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -5484,13 +5481,13 @@
         <v>23425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,34 +5496,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10806</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H17" s="7">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>18366</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10806</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -5535,13 +5532,13 @@
         <v>29172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,34 +5547,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7">
+        <v>20669</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H18" s="7">
         <v>18</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>13255</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H18" s="7">
-        <v>30</v>
-      </c>
-      <c r="I18" s="7">
-        <v>20669</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>454</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>459</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -5586,13 +5583,13 @@
         <v>33925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,34 +5598,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7">
+        <v>12169</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H19" s="7">
         <v>18</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>12478</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H19" s="7">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7">
-        <v>12169</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>463</v>
+        <v>187</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -5637,13 +5634,13 @@
         <v>24646</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>464</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,31 +5649,31 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>11550</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H20" s="7">
         <v>34</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>23874</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H20" s="7">
-        <v>17</v>
-      </c>
-      <c r="I20" s="7">
-        <v>11550</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>471</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>472</v>
@@ -5703,25 +5700,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5756,10 +5753,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D22" s="7">
-        <v>51057</v>
+        <v>74447</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>476</v>
@@ -5771,19 +5768,19 @@
         <v>478</v>
       </c>
       <c r="H22" s="7">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="I22" s="7">
-        <v>74447</v>
+        <v>51057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>479</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -5792,13 +5789,13 @@
         <v>125504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,34 +5804,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>86</v>
+      </c>
+      <c r="D23" s="7">
+        <v>59737</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H23" s="7">
         <v>91</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>67222</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="H23" s="7">
-        <v>86</v>
-      </c>
-      <c r="I23" s="7">
-        <v>59737</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>487</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M23" s="7">
         <v>177</v>
@@ -5843,13 +5840,13 @@
         <v>126959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,34 +5855,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>131</v>
+      </c>
+      <c r="D24" s="7">
+        <v>91375</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H24" s="7">
         <v>104</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>75394</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="7">
-        <v>131</v>
-      </c>
-      <c r="I24" s="7">
-        <v>91375</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M24" s="7">
         <v>235</v>
@@ -5894,13 +5891,13 @@
         <v>166768</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,34 +5906,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>73</v>
+      </c>
+      <c r="D25" s="7">
+        <v>51352</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" s="7">
         <v>100</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>73064</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="H25" s="7">
-        <v>73</v>
-      </c>
-      <c r="I25" s="7">
-        <v>51352</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>423</v>
+        <v>503</v>
       </c>
       <c r="M25" s="7">
         <v>173</v>
@@ -5945,13 +5942,13 @@
         <v>124416</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,34 +5957,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>98</v>
+      </c>
+      <c r="D26" s="7">
+        <v>67367</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="H26" s="7">
         <v>115</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>82467</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="H26" s="7">
-        <v>98</v>
-      </c>
-      <c r="I26" s="7">
-        <v>67367</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>509</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>213</v>
@@ -5999,10 +5996,10 @@
         <v>510</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,25 +6008,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>491</v>
+      </c>
+      <c r="D27" s="7">
+        <v>344278</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>349203</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>491</v>
-      </c>
-      <c r="I27" s="7">
-        <v>344278</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6058,7 +6055,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
